--- a/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>10.63701622689159</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-6.906741762287647</v>
+        <v>-6.906741762287649</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.1260638360247</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.597327345271925</v>
+        <v>9.376860861239846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.5503190752936</v>
+        <v>15.63972940622525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.178174499796957</v>
+        <v>-5.611594172905342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.639389136674971</v>
+        <v>1.455241231507835</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.711430065506407</v>
+        <v>5.015748367474261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.78391579900295</v>
+        <v>-11.11806600500366</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.225241664451401</v>
+        <v>7.01777145630313</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.00752203881361</v>
+        <v>11.8908396462436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.842378490124254</v>
+        <v>-6.779915527019148</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.03881932418894</v>
+        <v>18.20841939332598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.82290358498988</v>
+        <v>24.79018419292249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.743776168937372</v>
+        <v>2.81903263836787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.2844561256866</v>
+        <v>10.97935040489284</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.78650902070367</v>
+        <v>15.35201470000918</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.934543467832841</v>
+        <v>-3.418597857126385</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.45259503026785</v>
+        <v>13.66078912308029</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.74853544681171</v>
+        <v>18.93628190999166</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.277075043541459</v>
+        <v>-1.167243946527648</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4432068009593235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2877794727601168</v>
+        <v>-0.2877794727601169</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5251380784869901</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5750409300456034</v>
+        <v>0.5573897573595663</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.9209849391259958</v>
+        <v>0.9441374270177172</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3166054802428057</v>
+        <v>-0.3354646943850897</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0543472213990162</v>
+        <v>0.0623675059875919</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2145323086833751</v>
+        <v>0.1862612332402213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4077469661823727</v>
+        <v>-0.4209564825661539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.338452391190512</v>
+        <v>0.3470568279432679</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5747775577529807</v>
+        <v>0.5686988616394347</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3273985260825882</v>
+        <v>-0.3277278039183171</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.411485010787484</v>
+        <v>1.461241056998516</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.957053442738254</v>
+        <v>1.937857415492354</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2174242917804058</v>
+        <v>0.222873289340053</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5152270116584535</v>
+        <v>0.5122783117298703</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7187554834168947</v>
+        <v>0.6930403531808531</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1388492609882067</v>
+        <v>-0.1559880547483312</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.765273989254099</v>
+        <v>0.7771437975046166</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.04661013071763</v>
+        <v>1.079115915792353</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.07041625159790242</v>
+        <v>-0.06120594451554225</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>17.33838786071946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.503576264978031</v>
+        <v>-3.503576264978034</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.24758617362898</v>
@@ -869,7 +869,7 @@
         <v>8.879131993481549</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-11.75168850838256</v>
+        <v>-11.75168850838255</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>13.95321455186787</v>
@@ -878,7 +878,7 @@
         <v>13.10702404877816</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.626614912661048</v>
+        <v>-7.626614912661045</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>14.71968403599024</v>
+        <v>14.84262872060542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.49897993220898</v>
+        <v>13.42983696430037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.637385326365607</v>
+        <v>-6.849268407301723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.981547997890034</v>
+        <v>4.895911647622421</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.353179050293881</v>
+        <v>4.751499876450073</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.82301419386234</v>
+        <v>-15.13637586545997</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.1046511294165</v>
+        <v>11.21771372792875</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.29147143809024</v>
+        <v>10.39542076582859</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.22196928568441</v>
+        <v>-10.04362756546417</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.96995971569226</v>
+        <v>22.68713576679986</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.42593550998935</v>
+        <v>21.3731719750864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1205310388273685</v>
+        <v>0.09401610273951755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.41398630936288</v>
+        <v>13.69950843633037</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.04929096177357</v>
+        <v>13.26818390841111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.780523887804133</v>
+        <v>-8.342774434939773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.83536482584229</v>
+        <v>16.96478499530637</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.30249296630098</v>
+        <v>16.37551146643534</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.14967500006126</v>
+        <v>-5.409939436707536</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.03513504294829</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2091702294731196</v>
+        <v>-0.2091702294731198</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3519518422641168</v>
@@ -974,7 +974,7 @@
         <v>0.3379289258989142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4472549206444661</v>
+        <v>-0.447254920644466</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.648395224727676</v>
@@ -983,7 +983,7 @@
         <v>0.6090733982500757</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3544029708583767</v>
+        <v>-0.3544029708583766</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.7887515256872117</v>
+        <v>0.784648542449542</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.7157699001696861</v>
+        <v>0.7306679347337814</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3623219696205655</v>
+        <v>-0.377222245942501</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1718612509949497</v>
+        <v>0.1658250880395363</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1550148516384709</v>
+        <v>0.1616989056240707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5285737018733632</v>
+        <v>-0.5344160718567113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4854113999562967</v>
+        <v>0.4822744655837712</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.439281555033384</v>
+        <v>0.4521810204302305</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4435500104613653</v>
+        <v>-0.4384145198476285</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.54324641916796</v>
+        <v>1.484140690979644</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.44454459720717</v>
+        <v>1.433026104469873</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01824683207546434</v>
+        <v>0.004881495198294901</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5546520566014116</v>
+        <v>0.5674320347539381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5473678663367951</v>
+        <v>0.5448102459176359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3318914878795782</v>
+        <v>-0.3438047730929001</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8483103665158613</v>
+        <v>0.8497838981762498</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8132487769987693</v>
+        <v>0.8211725385581963</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2608618992945103</v>
+        <v>-0.2628417923729966</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>22.71994157982694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.709367214125799</v>
+        <v>-5.709367214125802</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.207857701781522</v>
@@ -1083,7 +1083,7 @@
         <v>16.09930766152197</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-13.16308707294317</v>
+        <v>-13.16308707294316</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.99112228449108</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.14933993429521</v>
+        <v>10.76123073461135</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18.0234263163852</v>
+        <v>17.88464698144356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.853989873011827</v>
+        <v>-10.11180998570271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.227376286690175</v>
+        <v>1.51755736074684</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.31567465377603</v>
+        <v>11.26191154679829</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.37913504664559</v>
+        <v>-17.33880303055739</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.596427912769677</v>
+        <v>7.359544979446767</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.91144007265758</v>
+        <v>15.9145093416861</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.31604879965649</v>
+        <v>-12.72358965685252</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.55695828395219</v>
+        <v>20.73580432413617</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.43847288468923</v>
+        <v>27.77760270209127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.464288815909204</v>
+        <v>-1.376427403426255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.91127657666346</v>
+        <v>11.16673892158877</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.06375005868223</v>
+        <v>21.26244919480545</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.712188740667985</v>
+        <v>-8.666756580534232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.78564851872984</v>
+        <v>14.65127861177601</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>22.83351301549457</v>
+        <v>22.98078017634549</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.079920324219793</v>
+        <v>-6.436929139104381</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.156636883170881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2906550035008841</v>
+        <v>-0.2906550035008843</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2033951588093951</v>
@@ -1188,7 +1188,7 @@
         <v>0.5274800737776021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4312773124382089</v>
+        <v>-0.4312773124382088</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4383948356747552</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4981010714973042</v>
+        <v>0.5024830139418727</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.8076957558777382</v>
+        <v>0.7981454259569052</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4543338336373642</v>
+        <v>-0.4616221455292351</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03365675950982443</v>
+        <v>0.04461159556785627</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3388082522263573</v>
+        <v>0.3437238820697597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5250818007749329</v>
+        <v>-0.533474787088339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2799268251951724</v>
+        <v>0.2670791236610425</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5931348477895307</v>
+        <v>0.5837671711993726</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4607641292870964</v>
+        <v>-0.4655505813148629</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.196483037134133</v>
+        <v>1.207655418694454</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.607047949520243</v>
+        <v>1.617394935959721</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.07932702788997431</v>
+        <v>-0.07591586724238987</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3866201017890245</v>
+        <v>0.405931102102379</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7594785525685402</v>
+        <v>0.7526987016669913</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3098500932713123</v>
+        <v>-0.3184558006248028</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6403114095874689</v>
+        <v>0.6129465406864759</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9980854950169238</v>
+        <v>0.9785560627579898</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2546056126934458</v>
+        <v>-0.2748193384209167</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.290659208427819</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-11.44215435208188</v>
+        <v>-11.44215435208187</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.577292918488366</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.113382263384487</v>
+        <v>-0.92257671803152</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3693779028030581</v>
+        <v>-0.09224506302926877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.7775713729998</v>
+        <v>-7.735325245471512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.296316488811547</v>
+        <v>-9.281159364200601</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.34945102088078</v>
+        <v>-5.597383405982729</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-15.26454128377185</v>
+        <v>-15.14246697103912</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.33166738227725</v>
+        <v>-4.16403706274304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.67559544423482</v>
+        <v>-1.573337842036791</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.73016005311873</v>
+        <v>-10.51514956098345</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.29605132990264</v>
+        <v>6.347763580859615</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.901570189343212</v>
+        <v>7.84265417982149</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2930028422529105</v>
+        <v>-0.5656460406832671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.9163168646193255</v>
+        <v>-1.04486474041105</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.987724711943798</v>
+        <v>2.631697403677355</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-7.865972811165574</v>
+        <v>-7.509261700245708</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.18964927599148</v>
+        <v>1.067812971350338</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.283929583638518</v>
+        <v>4.040317337725606</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-5.260819375732033</v>
+        <v>-5.553938069441109</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.04295349736976128</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3807980787315925</v>
+        <v>-0.3807980787315923</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.06143108645950612</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04622627017831022</v>
+        <v>-0.04248386170090229</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01566726082894694</v>
+        <v>-0.008835054086024958</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3461533832703371</v>
+        <v>-0.3455266951196301</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.287809276435629</v>
+        <v>-0.2857963004175519</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1672215087152955</v>
+        <v>-0.1731670192693558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4681647118545879</v>
+        <v>-0.467288611338628</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1613824180103502</v>
+        <v>-0.1554577310234607</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06260168561845569</v>
+        <v>-0.05878751539493628</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3906956674574507</v>
+        <v>-0.3938047649299861</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3354447289601575</v>
+        <v>0.3286024637778622</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4195024664971886</v>
+        <v>0.4093039651131117</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01426836952781819</v>
+        <v>-0.03287306364477712</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03371858506833263</v>
+        <v>-0.03728881111618593</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1065062262870606</v>
+        <v>0.09465728837810725</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2780197073118975</v>
+        <v>-0.2714009685102897</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04952567691144295</v>
+        <v>0.04313877139666297</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1744223901301477</v>
+        <v>0.1663633835610446</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2163385736631833</v>
+        <v>-0.2282029935298792</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>15.41851097673593</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.753928367336656</v>
+        <v>-3.753928367336659</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.788803350905062</v>
@@ -1511,7 +1511,7 @@
         <v>7.890777670217153</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-10.95798351759882</v>
+        <v>-10.95798351759883</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.11198161396551</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.46714548724683</v>
+        <v>10.24650174526569</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>13.23963521889419</v>
+        <v>13.16935614055511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.704728459582966</v>
+        <v>-5.586474182786263</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.520736784054249</v>
+        <v>1.55640790648274</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.717489077076264</v>
+        <v>5.777536112162808</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.87411129760924</v>
+        <v>-12.92216397284037</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.446396619752647</v>
+        <v>6.453828664818391</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.821844411434823</v>
+        <v>9.949935748296493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.69575237258268</v>
+        <v>-8.810267317465229</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.59054713034066</v>
+        <v>14.67816502171514</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.43022503271612</v>
+        <v>17.57994631728838</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.131628641802369</v>
+        <v>-1.798366945460401</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.001408816739986</v>
+        <v>6.176140035117958</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.17048967245567</v>
+        <v>10.15253138368101</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.979925980480449</v>
+        <v>-8.945600409670847</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.619710599776853</v>
+        <v>9.719139371648824</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.15214550385662</v>
+        <v>13.08736749790664</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-5.988197068450353</v>
+        <v>-6.057699003669529</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.8527828431291723</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2076261262083501</v>
+        <v>-0.2076261262083502</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1361738458060436</v>
@@ -1616,7 +1616,7 @@
         <v>0.2836034077876446</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.393842229239535</v>
+        <v>-0.3938422292395351</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3524745529256893</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5423609895652837</v>
+        <v>0.5340446333249418</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6865921483452407</v>
+        <v>0.683957868994767</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2958379593938599</v>
+        <v>-0.2948974477912629</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05170693823999317</v>
+        <v>0.05394053208180018</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1970324195957109</v>
+        <v>0.200471072118783</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4479617247536934</v>
+        <v>-0.4483224716721109</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2746004227956654</v>
+        <v>0.2737790780931311</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4095125979857981</v>
+        <v>0.415286875135339</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3663947228553095</v>
+        <v>-0.3697522544359216</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8519765779694217</v>
+        <v>0.860341808284341</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.013666884242374</v>
+        <v>1.031053895623021</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1216868936267443</v>
+        <v>-0.1072776909556017</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2255426294794179</v>
+        <v>0.2331859638729336</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3868299369864585</v>
+        <v>0.3824113183149616</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3385825610886851</v>
+        <v>-0.3377120044885751</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4340270633118906</v>
+        <v>0.4354849223411493</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5918701945010846</v>
+        <v>0.5838089607928617</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2688876503944739</v>
+        <v>-0.2713533538933948</v>
       </c>
     </row>
     <row r="34">
